--- a/Code/Results/Cases/Case_4_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9690961656723236</v>
+        <v>1.024382123966483</v>
       </c>
       <c r="D2">
-        <v>0.9938087078647267</v>
+        <v>1.028796604578865</v>
       </c>
       <c r="E2">
-        <v>0.9774966260420105</v>
+        <v>1.028007608895838</v>
       </c>
       <c r="F2">
-        <v>0.9442329509411049</v>
+        <v>1.02286350367046</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033377102821002</v>
+        <v>1.029573866997623</v>
       </c>
       <c r="J2">
-        <v>0.9922422002619491</v>
+        <v>1.029557051740755</v>
       </c>
       <c r="K2">
-        <v>1.005354976477024</v>
+        <v>1.031612379076076</v>
       </c>
       <c r="L2">
-        <v>0.9892786336602059</v>
+        <v>1.030825678596531</v>
       </c>
       <c r="M2">
-        <v>0.9565280528020849</v>
+        <v>1.025696632101863</v>
       </c>
       <c r="N2">
-        <v>0.9997221169122199</v>
+        <v>1.013645209875004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9782542390659372</v>
+        <v>1.026040992623472</v>
       </c>
       <c r="D3">
-        <v>1.000834476988677</v>
+        <v>1.0300601347804</v>
       </c>
       <c r="E3">
-        <v>0.9860815012989145</v>
+        <v>1.029615166945913</v>
       </c>
       <c r="F3">
-        <v>0.9564850928648511</v>
+        <v>1.025170267513586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036433809872608</v>
+        <v>1.029990051297575</v>
       </c>
       <c r="J3">
-        <v>0.9993557961651041</v>
+        <v>1.030851137153876</v>
       </c>
       <c r="K3">
-        <v>1.011456691649521</v>
+        <v>1.03268269254566</v>
       </c>
       <c r="L3">
-        <v>0.9968956250768821</v>
+        <v>1.032238923787924</v>
       </c>
       <c r="M3">
-        <v>0.9677067919821754</v>
+        <v>1.027806064083313</v>
       </c>
       <c r="N3">
-        <v>1.002290356255237</v>
+        <v>1.014096533741141</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9839402600847116</v>
+        <v>1.027110603309782</v>
       </c>
       <c r="D4">
-        <v>1.005198110717697</v>
+        <v>1.030874240519241</v>
       </c>
       <c r="E4">
-        <v>0.9914175950001544</v>
+        <v>1.030651991742019</v>
       </c>
       <c r="F4">
-        <v>0.9640762485440165</v>
+        <v>1.026658388452852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038312671096258</v>
+        <v>1.030256051553716</v>
       </c>
       <c r="J4">
-        <v>1.003763892403594</v>
+        <v>1.031684460545194</v>
       </c>
       <c r="K4">
-        <v>1.015234201369034</v>
+        <v>1.033371237224769</v>
       </c>
       <c r="L4">
-        <v>1.001620717773536</v>
+        <v>1.033149556666267</v>
       </c>
       <c r="M4">
-        <v>0.9746284908228118</v>
+        <v>1.029166208966509</v>
       </c>
       <c r="N4">
-        <v>1.003879555801349</v>
+        <v>1.014386604599623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9862775966805312</v>
+        <v>1.02755937837175</v>
       </c>
       <c r="D5">
-        <v>1.006992039775452</v>
+        <v>1.031215669096884</v>
       </c>
       <c r="E5">
-        <v>0.9936124295041321</v>
+        <v>1.031087081738465</v>
       </c>
       <c r="F5">
-        <v>0.9671937167888887</v>
+        <v>1.02728294500076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039080369788134</v>
+        <v>1.030367093636701</v>
       </c>
       <c r="J5">
-        <v>1.005573828324575</v>
+        <v>1.032033837721917</v>
       </c>
       <c r="K5">
-        <v>1.0167843013111</v>
+        <v>1.033659750695454</v>
       </c>
       <c r="L5">
-        <v>1.003562010363427</v>
+        <v>1.033531484646938</v>
       </c>
       <c r="M5">
-        <v>0.9774698920059485</v>
+        <v>1.029736892762234</v>
       </c>
       <c r="N5">
-        <v>1.004531475818426</v>
+        <v>1.014508084845415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9866670506807288</v>
+        <v>1.027634678040954</v>
       </c>
       <c r="D6">
-        <v>1.007290955409803</v>
+        <v>1.031272948640465</v>
       </c>
       <c r="E6">
-        <v>0.9939782159241944</v>
+        <v>1.031160089339949</v>
       </c>
       <c r="F6">
-        <v>0.9677130031395459</v>
+        <v>1.027387750118082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039208010568234</v>
+        <v>1.030385692245033</v>
       </c>
       <c r="J6">
-        <v>1.005875281411865</v>
+        <v>1.032092444276349</v>
       </c>
       <c r="K6">
-        <v>1.017042421410718</v>
+        <v>1.033708137961008</v>
       </c>
       <c r="L6">
-        <v>1.003885411793184</v>
+        <v>1.033595559573135</v>
       </c>
       <c r="M6">
-        <v>0.977943123653958</v>
+        <v>1.029832648138554</v>
       </c>
       <c r="N6">
-        <v>1.004640019636367</v>
+        <v>1.014528454760275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9839716948462357</v>
+        <v>1.027116603334372</v>
       </c>
       <c r="D7">
-        <v>1.005222236711316</v>
+        <v>1.030878805915636</v>
       </c>
       <c r="E7">
-        <v>0.9914471080443996</v>
+        <v>1.030657808522349</v>
       </c>
       <c r="F7">
-        <v>0.9641181862090119</v>
+        <v>1.026666737891242</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038323014366375</v>
+        <v>1.030257538378431</v>
       </c>
       <c r="J7">
-        <v>1.003788242497607</v>
+        <v>1.031689132661236</v>
       </c>
       <c r="K7">
-        <v>1.015255059485587</v>
+        <v>1.0333750960757</v>
       </c>
       <c r="L7">
-        <v>1.001646830336477</v>
+        <v>1.033154663530621</v>
       </c>
       <c r="M7">
-        <v>0.9746667193314005</v>
+        <v>1.029173838839164</v>
       </c>
       <c r="N7">
-        <v>1.003888328877439</v>
+        <v>1.014388229646934</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9722436485042131</v>
+        <v>1.024943541461544</v>
       </c>
       <c r="D8">
-        <v>0.996222914476082</v>
+        <v>1.029224349118651</v>
       </c>
       <c r="E8">
-        <v>0.9804457855285841</v>
+        <v>1.028551598882215</v>
       </c>
       <c r="F8">
-        <v>0.9484477364605048</v>
+        <v>1.023644037251831</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034431623257055</v>
+        <v>1.029715204695941</v>
       </c>
       <c r="J8">
-        <v>0.9946888281438608</v>
+        <v>1.029995238415202</v>
       </c>
       <c r="K8">
-        <v>1.007454293038657</v>
+        <v>1.031974935865255</v>
       </c>
       <c r="L8">
-        <v>0.9918973118202119</v>
+        <v>1.031304093873892</v>
       </c>
       <c r="M8">
-        <v>0.9603744638028671</v>
+        <v>1.026410534876563</v>
       </c>
       <c r="N8">
-        <v>1.000605878430177</v>
+        <v>1.013798147013333</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9495095837841947</v>
+        <v>1.021084517360628</v>
       </c>
       <c r="D9">
-        <v>0.9788007026756846</v>
+        <v>1.026281753166381</v>
       </c>
       <c r="E9">
-        <v>0.9591749035109731</v>
+        <v>1.024813620059711</v>
       </c>
       <c r="F9">
-        <v>0.917891603820686</v>
+        <v>1.018281754647009</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026734899910951</v>
+        <v>1.028734037020576</v>
       </c>
       <c r="J9">
-        <v>0.9769805440933156</v>
+        <v>1.026978817167022</v>
       </c>
       <c r="K9">
-        <v>0.9922473500338311</v>
+        <v>1.029476362469189</v>
       </c>
       <c r="L9">
-        <v>0.9729669910738028</v>
+        <v>1.028013126327839</v>
       </c>
       <c r="M9">
-        <v>0.9324738795043537</v>
+        <v>1.021503236027362</v>
       </c>
       <c r="N9">
-        <v>0.9942017811926686</v>
+        <v>1.012743059735785</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9325686600510054</v>
+        <v>1.018490667186189</v>
       </c>
       <c r="D10">
-        <v>0.9658500395783419</v>
+        <v>1.024300926038486</v>
       </c>
       <c r="E10">
-        <v>0.943370086556625</v>
+        <v>1.022302732505483</v>
       </c>
       <c r="F10">
-        <v>0.8949103209609135</v>
+        <v>1.01468084952122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020900677242988</v>
+        <v>1.028062434196706</v>
       </c>
       <c r="J10">
-        <v>0.9637389499181594</v>
+        <v>1.024945733181617</v>
       </c>
       <c r="K10">
-        <v>0.9808645272532369</v>
+        <v>1.027788851472869</v>
       </c>
       <c r="L10">
-        <v>0.9588430599028254</v>
+        <v>1.025797994403832</v>
       </c>
       <c r="M10">
-        <v>0.9114771073422991</v>
+        <v>1.018204389154887</v>
       </c>
       <c r="N10">
-        <v>0.9894065447524786</v>
+        <v>1.012029066137984</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9246926559815816</v>
+        <v>1.017362228324553</v>
       </c>
       <c r="D11">
-        <v>0.9598413827149922</v>
+        <v>1.023438499140968</v>
       </c>
       <c r="E11">
-        <v>0.9360354503899401</v>
+        <v>1.021210773819013</v>
       </c>
       <c r="F11">
-        <v>0.8841482088998852</v>
+        <v>1.013115009658349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018166623330445</v>
+        <v>1.027767396744488</v>
       </c>
       <c r="J11">
-        <v>0.9575723664557485</v>
+        <v>1.024059929060038</v>
       </c>
       <c r="K11">
-        <v>0.9755625628253983</v>
+        <v>1.027052803597797</v>
       </c>
       <c r="L11">
-        <v>0.9522736162673635</v>
+        <v>1.024833583542534</v>
       </c>
       <c r="M11">
-        <v>0.9016442566839763</v>
+        <v>1.01676907797716</v>
       </c>
       <c r="N11">
-        <v>0.9871731639438067</v>
+        <v>1.011717311377337</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9216729768888769</v>
+        <v>1.016942260009474</v>
       </c>
       <c r="D12">
-        <v>0.9575399658454965</v>
+        <v>1.023117431448648</v>
       </c>
       <c r="E12">
-        <v>0.9332255458809458</v>
+        <v>1.020804441163483</v>
       </c>
       <c r="F12">
-        <v>0.8800071242162216</v>
+        <v>1.012532354602754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017115314648571</v>
+        <v>1.02765716455099</v>
       </c>
       <c r="J12">
-        <v>0.9552065498929457</v>
+        <v>1.023730062959282</v>
       </c>
       <c r="K12">
-        <v>0.9735284939965566</v>
+        <v>1.026778585099818</v>
       </c>
       <c r="L12">
-        <v>0.9497545126869749</v>
+        <v>1.024474551676631</v>
       </c>
       <c r="M12">
-        <v>0.8978610662948492</v>
+        <v>1.016234870272567</v>
       </c>
       <c r="N12">
-        <v>0.9863164231041032</v>
+        <v>1.011601116178968</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9223252138738386</v>
+        <v>1.017032381914257</v>
       </c>
       <c r="D13">
-        <v>0.9580369485175629</v>
+        <v>1.023186334569333</v>
       </c>
       <c r="E13">
-        <v>0.9338323687144563</v>
+        <v>1.020891634286478</v>
       </c>
       <c r="F13">
-        <v>0.8809023094103882</v>
+        <v>1.012657383412111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017342527272119</v>
+        <v>1.027680838899377</v>
       </c>
       <c r="J13">
-        <v>0.9557176241479917</v>
+        <v>1.023800858614892</v>
       </c>
       <c r="K13">
-        <v>0.9739678976117793</v>
+        <v>1.026837443130875</v>
       </c>
       <c r="L13">
-        <v>0.9502986422842116</v>
+        <v>1.024551602042736</v>
       </c>
       <c r="M13">
-        <v>0.8986788635191337</v>
+        <v>1.016349508579108</v>
       </c>
       <c r="N13">
-        <v>0.9865014932144225</v>
+        <v>1.011626058448211</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9244450561712385</v>
+        <v>1.017327530384276</v>
       </c>
       <c r="D14">
-        <v>0.9596526272891874</v>
+        <v>1.023411974443924</v>
       </c>
       <c r="E14">
-        <v>0.9358050049911255</v>
+        <v>1.021177201256968</v>
       </c>
       <c r="F14">
-        <v>0.8838089803256914</v>
+        <v>1.013066868487856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018080481552364</v>
+        <v>1.027758298056276</v>
       </c>
       <c r="J14">
-        <v>0.957378411161752</v>
+        <v>1.02403267944534</v>
       </c>
       <c r="K14">
-        <v>0.975395803077247</v>
+        <v>1.027030153374148</v>
       </c>
       <c r="L14">
-        <v>0.9520670680721716</v>
+        <v>1.024803922423715</v>
       </c>
       <c r="M14">
-        <v>0.9013343370784037</v>
+        <v>1.016724942213712</v>
       </c>
       <c r="N14">
-        <v>0.9871029234337604</v>
+        <v>1.011707714753214</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9257382386391203</v>
+        <v>1.017509272324581</v>
       </c>
       <c r="D15">
-        <v>0.9606385696784959</v>
+        <v>1.023550902221389</v>
       </c>
       <c r="E15">
-        <v>0.9370086830533604</v>
+        <v>1.021353051071548</v>
       </c>
       <c r="F15">
-        <v>0.8855801064461579</v>
+        <v>1.013319027830375</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018530266434908</v>
+        <v>1.027805937903537</v>
       </c>
       <c r="J15">
-        <v>0.9583913533096942</v>
+        <v>1.02417540019283</v>
       </c>
       <c r="K15">
-        <v>0.9762667176421261</v>
+        <v>1.027148779742011</v>
       </c>
       <c r="L15">
-        <v>0.9531458290972584</v>
+        <v>1.024959277869133</v>
       </c>
       <c r="M15">
-        <v>0.902952455460185</v>
+        <v>1.016956116549627</v>
       </c>
       <c r="N15">
-        <v>0.9874697631800213</v>
+        <v>1.011757973285166</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9330789388033479</v>
+        <v>1.018565444752163</v>
       </c>
       <c r="D16">
-        <v>0.9662396227882688</v>
+        <v>1.024358061802838</v>
       </c>
       <c r="E16">
-        <v>0.9438455786372779</v>
+        <v>1.022375100873581</v>
       </c>
       <c r="F16">
-        <v>0.895605751069746</v>
+        <v>1.014784626429506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021077385940296</v>
+        <v>1.028081925183797</v>
       </c>
       <c r="J16">
-        <v>0.9641382665499207</v>
+        <v>1.025004404413354</v>
       </c>
       <c r="K16">
-        <v>0.9812078496609025</v>
+        <v>1.02783758670348</v>
       </c>
       <c r="L16">
-        <v>0.9592686329182035</v>
+        <v>1.02586188708537</v>
       </c>
       <c r="M16">
-        <v>0.9121125146850546</v>
+        <v>1.018299497979769</v>
       </c>
       <c r="N16">
-        <v>0.9895511727588271</v>
+        <v>1.012049701148523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9375306276953965</v>
+        <v>1.019226523592961</v>
       </c>
       <c r="D17">
-        <v>0.9696397673901558</v>
+        <v>1.024863098319738</v>
       </c>
       <c r="E17">
-        <v>0.9479952759703979</v>
+        <v>1.023014925721131</v>
       </c>
       <c r="F17">
-        <v>0.9016637680121476</v>
+        <v>1.015702158142938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022616609900598</v>
+        <v>1.028253907733943</v>
       </c>
       <c r="J17">
-        <v>0.9676207634578884</v>
+        <v>1.025522941077246</v>
       </c>
       <c r="K17">
-        <v>0.9842019193840783</v>
+        <v>1.028268216010531</v>
       </c>
       <c r="L17">
-        <v>0.9629810142130669</v>
+        <v>1.026426652772877</v>
       </c>
       <c r="M17">
-        <v>0.9176476836059698</v>
+        <v>1.019140297322458</v>
       </c>
       <c r="N17">
-        <v>0.9908124798426994</v>
+        <v>1.0122319962341</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9400760934076533</v>
+        <v>1.01961161130414</v>
       </c>
       <c r="D18">
-        <v>0.9715850587904323</v>
+        <v>1.025157223638017</v>
       </c>
       <c r="E18">
-        <v>0.9503692648838218</v>
+        <v>1.023387669950094</v>
       </c>
       <c r="F18">
-        <v>0.9051207693956494</v>
+        <v>1.016236702271124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023494719775906</v>
+        <v>1.028353814673371</v>
       </c>
       <c r="J18">
-        <v>0.9696110814527981</v>
+        <v>1.025824868637403</v>
       </c>
       <c r="K18">
-        <v>0.9859129849123552</v>
+        <v>1.028518880132919</v>
       </c>
       <c r="L18">
-        <v>0.9651034534701912</v>
+        <v>1.026755566350113</v>
       </c>
       <c r="M18">
-        <v>0.920806289173116</v>
+        <v>1.019630059033589</v>
       </c>
       <c r="N18">
-        <v>0.991533309914876</v>
+        <v>1.012338076330847</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9409357048041188</v>
+        <v>1.019742830688531</v>
       </c>
       <c r="D19">
-        <v>0.9722421629233711</v>
+        <v>1.025257436239195</v>
       </c>
       <c r="E19">
-        <v>0.9511711656791371</v>
+        <v>1.023514689570187</v>
       </c>
       <c r="F19">
-        <v>0.9062871075238905</v>
+        <v>1.016418861144631</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023790913246003</v>
+        <v>1.028387811430126</v>
       </c>
       <c r="J19">
-        <v>0.9702830528381945</v>
+        <v>1.025927729434374</v>
       </c>
       <c r="K19">
-        <v>0.9864906521467611</v>
+        <v>1.028604263262646</v>
       </c>
       <c r="L19">
-        <v>0.9658201552212716</v>
+        <v>1.026867632341783</v>
       </c>
       <c r="M19">
-        <v>0.9218719391251025</v>
+        <v>1.019796943809033</v>
       </c>
       <c r="N19">
-        <v>0.9917766675598385</v>
+        <v>1.012374204766702</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9370583761700463</v>
+        <v>1.019155648833008</v>
       </c>
       <c r="D20">
-        <v>0.9692789502136393</v>
+        <v>1.024808959745358</v>
       </c>
       <c r="E20">
-        <v>0.9475549341156846</v>
+        <v>1.022946325756289</v>
       </c>
       <c r="F20">
-        <v>0.9010218560204418</v>
+        <v>1.015603781787413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022453532136027</v>
+        <v>1.028235497839934</v>
       </c>
       <c r="J20">
-        <v>0.967251427790534</v>
+        <v>1.025467361546821</v>
       </c>
       <c r="K20">
-        <v>0.9838843936869978</v>
+        <v>1.028222066900829</v>
       </c>
       <c r="L20">
-        <v>0.9625872209137206</v>
+        <v>1.02636611109812</v>
       </c>
       <c r="M20">
-        <v>0.9170611743441494</v>
+        <v>1.019050156263763</v>
       </c>
       <c r="N20">
-        <v>0.9906787146533315</v>
+        <v>1.012212463553795</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.923823535640909</v>
+        <v>1.01724063921613</v>
       </c>
       <c r="D21">
-        <v>0.9591788557622928</v>
+        <v>1.023345549234554</v>
       </c>
       <c r="E21">
-        <v>0.9352265814685199</v>
+        <v>1.021093129233671</v>
       </c>
       <c r="F21">
-        <v>0.8829572044361326</v>
+        <v>1.012946314140396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017864201598667</v>
+        <v>1.027735506046672</v>
       </c>
       <c r="J21">
-        <v>0.9568915236455859</v>
+        <v>1.023964437294649</v>
       </c>
       <c r="K21">
-        <v>0.9749771860297541</v>
+        <v>1.026973427697278</v>
       </c>
       <c r="L21">
-        <v>0.9515485890973755</v>
+        <v>1.024729642783055</v>
       </c>
       <c r="M21">
-        <v>0.90055616028116</v>
+        <v>1.016614416159472</v>
       </c>
       <c r="N21">
-        <v>0.9869266002017513</v>
+        <v>1.011683679978618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.91494834874072</v>
+        <v>1.016031865149713</v>
       </c>
       <c r="D22">
-        <v>0.9524197772106812</v>
+        <v>1.022421248615411</v>
       </c>
       <c r="E22">
-        <v>0.926972475319972</v>
+        <v>1.019923713851344</v>
       </c>
       <c r="F22">
-        <v>0.8707532131954037</v>
+        <v>1.011269466697672</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014768666823871</v>
+        <v>1.027417422650457</v>
       </c>
       <c r="J22">
-        <v>0.9499352129127843</v>
+        <v>1.023014625849984</v>
       </c>
       <c r="K22">
-        <v>0.9689966442506887</v>
+        <v>1.026183621212535</v>
       </c>
       <c r="L22">
-        <v>0.9441440783917948</v>
+        <v>1.023696053152435</v>
       </c>
       <c r="M22">
-        <v>0.8894080166261504</v>
+        <v>1.015076766110071</v>
       </c>
       <c r="N22">
-        <v>0.9844078549333358</v>
+        <v>1.011348920724551</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9197109964472731</v>
+        <v>1.016673115049406</v>
       </c>
       <c r="D23">
-        <v>0.9560453843899184</v>
+        <v>1.022911640853686</v>
       </c>
       <c r="E23">
-        <v>0.9314005194872392</v>
+        <v>1.020544051556216</v>
       </c>
       <c r="F23">
-        <v>0.8773118592706725</v>
+        <v>1.012158975801803</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016431407829907</v>
+        <v>1.027586399463894</v>
       </c>
       <c r="J23">
-        <v>0.9536689752840032</v>
+        <v>1.023518605902001</v>
       </c>
       <c r="K23">
-        <v>0.9722065635044381</v>
+        <v>1.026602766563336</v>
       </c>
       <c r="L23">
-        <v>0.9481176827592448</v>
+        <v>1.024244428273035</v>
       </c>
       <c r="M23">
-        <v>0.8953988851772045</v>
+        <v>1.015892503101596</v>
       </c>
       <c r="N23">
-        <v>0.9857596632604132</v>
+        <v>1.011526602344013</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9372719233623765</v>
+        <v>1.019187675656612</v>
       </c>
       <c r="D24">
-        <v>0.9694421045787662</v>
+        <v>1.024833424039092</v>
       </c>
       <c r="E24">
-        <v>0.9477540483626428</v>
+        <v>1.022977324532319</v>
       </c>
       <c r="F24">
-        <v>0.901312143362011</v>
+        <v>1.015648235793649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0225272804849</v>
+        <v>1.028243817737833</v>
       </c>
       <c r="J24">
-        <v>0.9674184405225652</v>
+        <v>1.02549247716941</v>
       </c>
       <c r="K24">
-        <v>0.9840279784154535</v>
+        <v>1.028242921287006</v>
       </c>
       <c r="L24">
-        <v>0.9627652910355674</v>
+        <v>1.026393468833971</v>
       </c>
       <c r="M24">
-        <v>0.9173264074262082</v>
+        <v>1.019090889173452</v>
       </c>
       <c r="N24">
-        <v>0.9907392030730714</v>
+        <v>1.012221290302183</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9556680627358807</v>
+        <v>1.022085815144182</v>
       </c>
       <c r="D25">
-        <v>0.9835161869876233</v>
+        <v>1.027045792180793</v>
       </c>
       <c r="E25">
-        <v>0.9649300184158103</v>
+        <v>1.025783231693788</v>
       </c>
       <c r="F25">
-        <v>0.9261971646713879</v>
+        <v>1.019672482724652</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028836885525327</v>
+        <v>1.028990749877726</v>
       </c>
       <c r="J25">
-        <v>0.9817853651906341</v>
+        <v>1.027762468166068</v>
       </c>
       <c r="K25">
-        <v>0.9963758987635848</v>
+        <v>1.03012609001741</v>
       </c>
       <c r="L25">
-        <v>0.9780982942126838</v>
+        <v>1.028867577202192</v>
       </c>
       <c r="M25">
-        <v>0.9400604952347464</v>
+        <v>1.022776573997835</v>
       </c>
       <c r="N25">
-        <v>0.9959408552273249</v>
+        <v>1.01301766971448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024382123966483</v>
+        <v>0.9690961656723228</v>
       </c>
       <c r="D2">
-        <v>1.028796604578865</v>
+        <v>0.9938087078647257</v>
       </c>
       <c r="E2">
-        <v>1.028007608895838</v>
+        <v>0.9774966260420094</v>
       </c>
       <c r="F2">
-        <v>1.02286350367046</v>
+        <v>0.9442329509411039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029573866997623</v>
+        <v>1.033377102821002</v>
       </c>
       <c r="J2">
-        <v>1.029557051740755</v>
+        <v>0.9922422002619484</v>
       </c>
       <c r="K2">
-        <v>1.031612379076076</v>
+        <v>1.005354976477023</v>
       </c>
       <c r="L2">
-        <v>1.030825678596531</v>
+        <v>0.9892786336602045</v>
       </c>
       <c r="M2">
-        <v>1.025696632101863</v>
+        <v>0.9565280528020839</v>
       </c>
       <c r="N2">
-        <v>1.013645209875004</v>
+        <v>0.9997221169122196</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026040992623472</v>
+        <v>0.9782542390659372</v>
       </c>
       <c r="D3">
-        <v>1.0300601347804</v>
+        <v>1.000834476988677</v>
       </c>
       <c r="E3">
-        <v>1.029615166945913</v>
+        <v>0.986081501298914</v>
       </c>
       <c r="F3">
-        <v>1.025170267513586</v>
+        <v>0.9564850928648506</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029990051297575</v>
+        <v>1.036433809872608</v>
       </c>
       <c r="J3">
-        <v>1.030851137153876</v>
+        <v>0.9993557961651038</v>
       </c>
       <c r="K3">
-        <v>1.03268269254566</v>
+        <v>1.011456691649521</v>
       </c>
       <c r="L3">
-        <v>1.032238923787924</v>
+        <v>0.9968956250768821</v>
       </c>
       <c r="M3">
-        <v>1.027806064083313</v>
+        <v>0.967706791982175</v>
       </c>
       <c r="N3">
-        <v>1.014096533741141</v>
+        <v>1.002290356255236</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027110603309782</v>
+        <v>0.9839402600847111</v>
       </c>
       <c r="D4">
-        <v>1.030874240519241</v>
+        <v>1.005198110717696</v>
       </c>
       <c r="E4">
-        <v>1.030651991742019</v>
+        <v>0.991417595000154</v>
       </c>
       <c r="F4">
-        <v>1.026658388452852</v>
+        <v>0.9640762485440162</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030256051553716</v>
+        <v>1.038312671096257</v>
       </c>
       <c r="J4">
-        <v>1.031684460545194</v>
+        <v>1.003763892403593</v>
       </c>
       <c r="K4">
-        <v>1.033371237224769</v>
+        <v>1.015234201369034</v>
       </c>
       <c r="L4">
-        <v>1.033149556666267</v>
+        <v>1.001620717773536</v>
       </c>
       <c r="M4">
-        <v>1.029166208966509</v>
+        <v>0.9746284908228113</v>
       </c>
       <c r="N4">
-        <v>1.014386604599623</v>
+        <v>1.003879555801348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02755937837175</v>
+        <v>0.9862775966805323</v>
       </c>
       <c r="D5">
-        <v>1.031215669096884</v>
+        <v>1.006992039775453</v>
       </c>
       <c r="E5">
-        <v>1.031087081738465</v>
+        <v>0.9936124295041329</v>
       </c>
       <c r="F5">
-        <v>1.02728294500076</v>
+        <v>0.96719371678889</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030367093636701</v>
+        <v>1.039080369788135</v>
       </c>
       <c r="J5">
-        <v>1.032033837721917</v>
+        <v>1.005573828324576</v>
       </c>
       <c r="K5">
-        <v>1.033659750695454</v>
+        <v>1.016784301311101</v>
       </c>
       <c r="L5">
-        <v>1.033531484646938</v>
+        <v>1.003562010363428</v>
       </c>
       <c r="M5">
-        <v>1.029736892762234</v>
+        <v>0.9774698920059498</v>
       </c>
       <c r="N5">
-        <v>1.014508084845415</v>
+        <v>1.004531475818426</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027634678040954</v>
+        <v>0.9866670506807298</v>
       </c>
       <c r="D6">
-        <v>1.031272948640465</v>
+        <v>1.007290955409803</v>
       </c>
       <c r="E6">
-        <v>1.031160089339949</v>
+        <v>0.993978215924195</v>
       </c>
       <c r="F6">
-        <v>1.027387750118082</v>
+        <v>0.967713003139547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030385692245033</v>
+        <v>1.039208010568234</v>
       </c>
       <c r="J6">
-        <v>1.032092444276349</v>
+        <v>1.005875281411865</v>
       </c>
       <c r="K6">
-        <v>1.033708137961008</v>
+        <v>1.017042421410719</v>
       </c>
       <c r="L6">
-        <v>1.033595559573135</v>
+        <v>1.003885411793185</v>
       </c>
       <c r="M6">
-        <v>1.029832648138554</v>
+        <v>0.9779431236539591</v>
       </c>
       <c r="N6">
-        <v>1.014528454760275</v>
+        <v>1.004640019636367</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027116603334372</v>
+        <v>0.9839716948462355</v>
       </c>
       <c r="D7">
-        <v>1.030878805915636</v>
+        <v>1.005222236711316</v>
       </c>
       <c r="E7">
-        <v>1.030657808522349</v>
+        <v>0.9914471080443997</v>
       </c>
       <c r="F7">
-        <v>1.026666737891242</v>
+        <v>0.9641181862090119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030257538378431</v>
+        <v>1.038323014366375</v>
       </c>
       <c r="J7">
-        <v>1.031689132661236</v>
+        <v>1.003788242497607</v>
       </c>
       <c r="K7">
-        <v>1.0333750960757</v>
+        <v>1.015255059485586</v>
       </c>
       <c r="L7">
-        <v>1.033154663530621</v>
+        <v>1.001646830336477</v>
       </c>
       <c r="M7">
-        <v>1.029173838839164</v>
+        <v>0.9746667193314008</v>
       </c>
       <c r="N7">
-        <v>1.014388229646934</v>
+        <v>1.003888328877439</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024943541461544</v>
+        <v>0.972243648504214</v>
       </c>
       <c r="D8">
-        <v>1.029224349118651</v>
+        <v>0.9962229144760827</v>
       </c>
       <c r="E8">
-        <v>1.028551598882215</v>
+        <v>0.9804457855285849</v>
       </c>
       <c r="F8">
-        <v>1.023644037251831</v>
+        <v>0.9484477364605055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029715204695941</v>
+        <v>1.034431623257056</v>
       </c>
       <c r="J8">
-        <v>1.029995238415202</v>
+        <v>0.9946888281438615</v>
       </c>
       <c r="K8">
-        <v>1.031974935865255</v>
+        <v>1.007454293038658</v>
       </c>
       <c r="L8">
-        <v>1.031304093873892</v>
+        <v>0.9918973118202126</v>
       </c>
       <c r="M8">
-        <v>1.026410534876563</v>
+        <v>0.9603744638028678</v>
       </c>
       <c r="N8">
-        <v>1.013798147013333</v>
+        <v>1.000605878430177</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021084517360628</v>
+        <v>0.9495095837841937</v>
       </c>
       <c r="D9">
-        <v>1.026281753166381</v>
+        <v>0.9788007026756839</v>
       </c>
       <c r="E9">
-        <v>1.024813620059711</v>
+        <v>0.9591749035109723</v>
       </c>
       <c r="F9">
-        <v>1.018281754647009</v>
+        <v>0.9178916038206857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028734037020576</v>
+        <v>1.02673489991095</v>
       </c>
       <c r="J9">
-        <v>1.026978817167022</v>
+        <v>0.9769805440933145</v>
       </c>
       <c r="K9">
-        <v>1.029476362469189</v>
+        <v>0.9922473500338302</v>
       </c>
       <c r="L9">
-        <v>1.028013126327839</v>
+        <v>0.972966991073802</v>
       </c>
       <c r="M9">
-        <v>1.021503236027362</v>
+        <v>0.9324738795043533</v>
       </c>
       <c r="N9">
-        <v>1.012743059735785</v>
+        <v>0.9942017811926681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018490667186189</v>
+        <v>0.9325686600510069</v>
       </c>
       <c r="D10">
-        <v>1.024300926038486</v>
+        <v>0.9658500395783431</v>
       </c>
       <c r="E10">
-        <v>1.022302732505483</v>
+        <v>0.943370086556627</v>
       </c>
       <c r="F10">
-        <v>1.01468084952122</v>
+        <v>0.8949103209609155</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028062434196706</v>
+        <v>1.020900677242989</v>
       </c>
       <c r="J10">
-        <v>1.024945733181617</v>
+        <v>0.9637389499181612</v>
       </c>
       <c r="K10">
-        <v>1.027788851472869</v>
+        <v>0.980864527253238</v>
       </c>
       <c r="L10">
-        <v>1.025797994403832</v>
+        <v>0.958843059902827</v>
       </c>
       <c r="M10">
-        <v>1.018204389154887</v>
+        <v>0.9114771073423009</v>
       </c>
       <c r="N10">
-        <v>1.012029066137984</v>
+        <v>0.9894065447524792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017362228324553</v>
+        <v>0.9246926559815809</v>
       </c>
       <c r="D11">
-        <v>1.023438499140968</v>
+        <v>0.959841382714992</v>
       </c>
       <c r="E11">
-        <v>1.021210773819013</v>
+        <v>0.9360354503899394</v>
       </c>
       <c r="F11">
-        <v>1.013115009658349</v>
+        <v>0.8841482088998844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027767396744488</v>
+        <v>1.018166623330445</v>
       </c>
       <c r="J11">
-        <v>1.024059929060038</v>
+        <v>0.9575723664557482</v>
       </c>
       <c r="K11">
-        <v>1.027052803597797</v>
+        <v>0.9755625628253979</v>
       </c>
       <c r="L11">
-        <v>1.024833583542534</v>
+        <v>0.952273616267363</v>
       </c>
       <c r="M11">
-        <v>1.01676907797716</v>
+        <v>0.9016442566839755</v>
       </c>
       <c r="N11">
-        <v>1.011717311377337</v>
+        <v>0.9871731639438066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016942260009474</v>
+        <v>0.9216729768888774</v>
       </c>
       <c r="D12">
-        <v>1.023117431448648</v>
+        <v>0.9575399658454967</v>
       </c>
       <c r="E12">
-        <v>1.020804441163483</v>
+        <v>0.9332255458809464</v>
       </c>
       <c r="F12">
-        <v>1.012532354602754</v>
+        <v>0.8800071242162216</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02765716455099</v>
+        <v>1.017115314648571</v>
       </c>
       <c r="J12">
-        <v>1.023730062959282</v>
+        <v>0.9552065498929461</v>
       </c>
       <c r="K12">
-        <v>1.026778585099818</v>
+        <v>0.9735284939965568</v>
       </c>
       <c r="L12">
-        <v>1.024474551676631</v>
+        <v>0.9497545126869754</v>
       </c>
       <c r="M12">
-        <v>1.016234870272567</v>
+        <v>0.8978610662948492</v>
       </c>
       <c r="N12">
-        <v>1.011601116178968</v>
+        <v>0.9863164231041032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017032381914257</v>
+        <v>0.9223252138738401</v>
       </c>
       <c r="D13">
-        <v>1.023186334569333</v>
+        <v>0.9580369485175645</v>
       </c>
       <c r="E13">
-        <v>1.020891634286478</v>
+        <v>0.9338323687144581</v>
       </c>
       <c r="F13">
-        <v>1.012657383412111</v>
+        <v>0.8809023094103902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027680838899377</v>
+        <v>1.01734252727212</v>
       </c>
       <c r="J13">
-        <v>1.023800858614892</v>
+        <v>0.9557176241479933</v>
       </c>
       <c r="K13">
-        <v>1.026837443130875</v>
+        <v>0.9739678976117806</v>
       </c>
       <c r="L13">
-        <v>1.024551602042736</v>
+        <v>0.9502986422842135</v>
       </c>
       <c r="M13">
-        <v>1.016349508579108</v>
+        <v>0.8986788635191356</v>
       </c>
       <c r="N13">
-        <v>1.011626058448211</v>
+        <v>0.9865014932144228</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017327530384276</v>
+        <v>0.9244450561712371</v>
       </c>
       <c r="D14">
-        <v>1.023411974443924</v>
+        <v>0.9596526272891863</v>
       </c>
       <c r="E14">
-        <v>1.021177201256968</v>
+        <v>0.9358050049911238</v>
       </c>
       <c r="F14">
-        <v>1.013066868487856</v>
+        <v>0.8838089803256906</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027758298056276</v>
+        <v>1.018080481552363</v>
       </c>
       <c r="J14">
-        <v>1.02403267944534</v>
+        <v>0.9573784111617512</v>
       </c>
       <c r="K14">
-        <v>1.027030153374148</v>
+        <v>0.9753958030772458</v>
       </c>
       <c r="L14">
-        <v>1.024803922423715</v>
+        <v>0.95206706807217</v>
       </c>
       <c r="M14">
-        <v>1.016724942213712</v>
+        <v>0.9013343370784025</v>
       </c>
       <c r="N14">
-        <v>1.011707714753214</v>
+        <v>0.9871029234337598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017509272324581</v>
+        <v>0.9257382386391202</v>
       </c>
       <c r="D15">
-        <v>1.023550902221389</v>
+        <v>0.9606385696784956</v>
       </c>
       <c r="E15">
-        <v>1.021353051071548</v>
+        <v>0.9370086830533607</v>
       </c>
       <c r="F15">
-        <v>1.013319027830375</v>
+        <v>0.8855801064461583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027805937903537</v>
+        <v>1.018530266434908</v>
       </c>
       <c r="J15">
-        <v>1.02417540019283</v>
+        <v>0.9583913533096942</v>
       </c>
       <c r="K15">
-        <v>1.027148779742011</v>
+        <v>0.9762667176421257</v>
       </c>
       <c r="L15">
-        <v>1.024959277869133</v>
+        <v>0.9531458290972584</v>
       </c>
       <c r="M15">
-        <v>1.016956116549627</v>
+        <v>0.902952455460185</v>
       </c>
       <c r="N15">
-        <v>1.011757973285166</v>
+        <v>0.9874697631800211</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018565444752163</v>
+        <v>0.9330789388033494</v>
       </c>
       <c r="D16">
-        <v>1.024358061802838</v>
+        <v>0.9662396227882704</v>
       </c>
       <c r="E16">
-        <v>1.022375100873581</v>
+        <v>0.9438455786372799</v>
       </c>
       <c r="F16">
-        <v>1.014784626429506</v>
+        <v>0.8956057510697479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028081925183797</v>
+        <v>1.021077385940297</v>
       </c>
       <c r="J16">
-        <v>1.025004404413354</v>
+        <v>0.9641382665499224</v>
       </c>
       <c r="K16">
-        <v>1.02783758670348</v>
+        <v>0.9812078496609041</v>
       </c>
       <c r="L16">
-        <v>1.02586188708537</v>
+        <v>0.9592686329182054</v>
       </c>
       <c r="M16">
-        <v>1.018299497979769</v>
+        <v>0.9121125146850564</v>
       </c>
       <c r="N16">
-        <v>1.012049701148523</v>
+        <v>0.9895511727588279</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019226523592961</v>
+        <v>0.9375306276953971</v>
       </c>
       <c r="D17">
-        <v>1.024863098319738</v>
+        <v>0.9696397673901562</v>
       </c>
       <c r="E17">
-        <v>1.023014925721131</v>
+        <v>0.9479952759703989</v>
       </c>
       <c r="F17">
-        <v>1.015702158142938</v>
+        <v>0.9016637680121481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028253907733943</v>
+        <v>1.022616609900598</v>
       </c>
       <c r="J17">
-        <v>1.025522941077246</v>
+        <v>0.9676207634578891</v>
       </c>
       <c r="K17">
-        <v>1.028268216010531</v>
+        <v>0.9842019193840789</v>
       </c>
       <c r="L17">
-        <v>1.026426652772877</v>
+        <v>0.9629810142130677</v>
       </c>
       <c r="M17">
-        <v>1.019140297322458</v>
+        <v>0.9176476836059704</v>
       </c>
       <c r="N17">
-        <v>1.0122319962341</v>
+        <v>0.9908124798426996</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01961161130414</v>
+        <v>0.9400760934076556</v>
       </c>
       <c r="D18">
-        <v>1.025157223638017</v>
+        <v>0.9715850587904344</v>
       </c>
       <c r="E18">
-        <v>1.023387669950094</v>
+        <v>0.950369264883824</v>
       </c>
       <c r="F18">
-        <v>1.016236702271124</v>
+        <v>0.9051207693956521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028353814673371</v>
+        <v>1.023494719775907</v>
       </c>
       <c r="J18">
-        <v>1.025824868637403</v>
+        <v>0.9696110814528005</v>
       </c>
       <c r="K18">
-        <v>1.028518880132919</v>
+        <v>0.9859129849123571</v>
       </c>
       <c r="L18">
-        <v>1.026755566350113</v>
+        <v>0.9651034534701933</v>
       </c>
       <c r="M18">
-        <v>1.019630059033589</v>
+        <v>0.9208062891731185</v>
       </c>
       <c r="N18">
-        <v>1.012338076330847</v>
+        <v>0.9915333099148768</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019742830688531</v>
+        <v>0.940935704804122</v>
       </c>
       <c r="D19">
-        <v>1.025257436239195</v>
+        <v>0.972242162923374</v>
       </c>
       <c r="E19">
-        <v>1.023514689570187</v>
+        <v>0.9511711656791406</v>
       </c>
       <c r="F19">
-        <v>1.016418861144631</v>
+        <v>0.9062871075238933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028387811430126</v>
+        <v>1.023790913246004</v>
       </c>
       <c r="J19">
-        <v>1.025927729434374</v>
+        <v>0.9702830528381974</v>
       </c>
       <c r="K19">
-        <v>1.028604263262646</v>
+        <v>0.9864906521467638</v>
       </c>
       <c r="L19">
-        <v>1.026867632341783</v>
+        <v>0.9658201552212748</v>
       </c>
       <c r="M19">
-        <v>1.019796943809033</v>
+        <v>0.9218719391251051</v>
       </c>
       <c r="N19">
-        <v>1.012374204766702</v>
+        <v>0.9917766675598397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019155648833008</v>
+        <v>0.9370583761700464</v>
       </c>
       <c r="D20">
-        <v>1.024808959745358</v>
+        <v>0.9692789502136396</v>
       </c>
       <c r="E20">
-        <v>1.022946325756289</v>
+        <v>0.9475549341156851</v>
       </c>
       <c r="F20">
-        <v>1.015603781787413</v>
+        <v>0.9010218560204425</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028235497839934</v>
+        <v>1.022453532136027</v>
       </c>
       <c r="J20">
-        <v>1.025467361546821</v>
+        <v>0.9672514277905343</v>
       </c>
       <c r="K20">
-        <v>1.028222066900829</v>
+        <v>0.9838843936869981</v>
       </c>
       <c r="L20">
-        <v>1.02636611109812</v>
+        <v>0.9625872209137212</v>
       </c>
       <c r="M20">
-        <v>1.019050156263763</v>
+        <v>0.9170611743441498</v>
       </c>
       <c r="N20">
-        <v>1.012212463553795</v>
+        <v>0.9906787146533315</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01724063921613</v>
+        <v>0.9238235356409079</v>
       </c>
       <c r="D21">
-        <v>1.023345549234554</v>
+        <v>0.9591788557622917</v>
       </c>
       <c r="E21">
-        <v>1.021093129233671</v>
+        <v>0.935226581468519</v>
       </c>
       <c r="F21">
-        <v>1.012946314140396</v>
+        <v>0.882957204436131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027735506046672</v>
+        <v>1.017864201598666</v>
       </c>
       <c r="J21">
-        <v>1.023964437294649</v>
+        <v>0.9568915236455849</v>
       </c>
       <c r="K21">
-        <v>1.026973427697278</v>
+        <v>0.9749771860297533</v>
       </c>
       <c r="L21">
-        <v>1.024729642783055</v>
+        <v>0.9515485890973746</v>
       </c>
       <c r="M21">
-        <v>1.016614416159472</v>
+        <v>0.9005561602811583</v>
       </c>
       <c r="N21">
-        <v>1.011683679978618</v>
+        <v>0.9869266002017508</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016031865149713</v>
+        <v>0.9149483487407188</v>
       </c>
       <c r="D22">
-        <v>1.022421248615411</v>
+        <v>0.9524197772106805</v>
       </c>
       <c r="E22">
-        <v>1.019923713851344</v>
+        <v>0.9269724753199707</v>
       </c>
       <c r="F22">
-        <v>1.011269466697672</v>
+        <v>0.8707532131954028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027417422650457</v>
+        <v>1.01476866682387</v>
       </c>
       <c r="J22">
-        <v>1.023014625849984</v>
+        <v>0.9499352129127834</v>
       </c>
       <c r="K22">
-        <v>1.026183621212535</v>
+        <v>0.9689966442506879</v>
       </c>
       <c r="L22">
-        <v>1.023696053152435</v>
+        <v>0.9441440783917938</v>
       </c>
       <c r="M22">
-        <v>1.015076766110071</v>
+        <v>0.8894080166261494</v>
       </c>
       <c r="N22">
-        <v>1.011348920724551</v>
+        <v>0.9844078549333355</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016673115049406</v>
+        <v>0.9197109964472735</v>
       </c>
       <c r="D23">
-        <v>1.022911640853686</v>
+        <v>0.9560453843899188</v>
       </c>
       <c r="E23">
-        <v>1.020544051556216</v>
+        <v>0.9314005194872397</v>
       </c>
       <c r="F23">
-        <v>1.012158975801803</v>
+        <v>0.8773118592706729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027586399463894</v>
+        <v>1.016431407829907</v>
       </c>
       <c r="J23">
-        <v>1.023518605902001</v>
+        <v>0.9536689752840037</v>
       </c>
       <c r="K23">
-        <v>1.026602766563336</v>
+        <v>0.9722065635044386</v>
       </c>
       <c r="L23">
-        <v>1.024244428273035</v>
+        <v>0.9481176827592451</v>
       </c>
       <c r="M23">
-        <v>1.015892503101596</v>
+        <v>0.8953988851772046</v>
       </c>
       <c r="N23">
-        <v>1.011526602344013</v>
+        <v>0.9857596632604133</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019187675656612</v>
+        <v>0.9372719233623782</v>
       </c>
       <c r="D24">
-        <v>1.024833424039092</v>
+        <v>0.9694421045787678</v>
       </c>
       <c r="E24">
-        <v>1.022977324532319</v>
+        <v>0.9477540483626445</v>
       </c>
       <c r="F24">
-        <v>1.015648235793649</v>
+        <v>0.9013121433620126</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028243817737833</v>
+        <v>1.022527280484901</v>
       </c>
       <c r="J24">
-        <v>1.02549247716941</v>
+        <v>0.967418440522567</v>
       </c>
       <c r="K24">
-        <v>1.028242921287006</v>
+        <v>0.984027978415455</v>
       </c>
       <c r="L24">
-        <v>1.026393468833971</v>
+        <v>0.9627652910355691</v>
       </c>
       <c r="M24">
-        <v>1.019090889173452</v>
+        <v>0.9173264074262099</v>
       </c>
       <c r="N24">
-        <v>1.012221290302183</v>
+        <v>0.990739203073072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022085815144182</v>
+        <v>0.9556680627358822</v>
       </c>
       <c r="D25">
-        <v>1.027045792180793</v>
+        <v>0.9835161869876249</v>
       </c>
       <c r="E25">
-        <v>1.025783231693788</v>
+        <v>0.9649300184158117</v>
       </c>
       <c r="F25">
-        <v>1.019672482724652</v>
+        <v>0.9261971646713888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028990749877726</v>
+        <v>1.028836885525328</v>
       </c>
       <c r="J25">
-        <v>1.027762468166068</v>
+        <v>0.9817853651906356</v>
       </c>
       <c r="K25">
-        <v>1.03012609001741</v>
+        <v>0.9963758987635861</v>
       </c>
       <c r="L25">
-        <v>1.028867577202192</v>
+        <v>0.9780982942126855</v>
       </c>
       <c r="M25">
-        <v>1.022776573997835</v>
+        <v>0.9400604952347473</v>
       </c>
       <c r="N25">
-        <v>1.01301766971448</v>
+        <v>0.9959408552273256</v>
       </c>
     </row>
   </sheetData>
